--- a/contratos/contratos-4-2009.xlsx
+++ b/contratos/contratos-4-2009.xlsx
@@ -661,7 +661,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -745,7 +745,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -766,7 +766,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -802,7 +802,7 @@
     <t>DISTRIBUIDORA DIQUE S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>METRALLE GRISELDA BEATRIZ</t>
@@ -829,7 +829,7 @@
     <t>MUÑOZ LUCIANO GASTON</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SAWCZUK LEANDRO NICOLAS</t>
@@ -1297,535 +1297,535 @@
     <t>73</t>
   </si>
   <si>
-    <t>2.073,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>682,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>32,00</t>
-  </si>
-  <si>
-    <t>17.060,00</t>
-  </si>
-  <si>
-    <t>33.755,00</t>
-  </si>
-  <si>
-    <t>11.453,00</t>
-  </si>
-  <si>
-    <t>11.550,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>748,00</t>
-  </si>
-  <si>
-    <t>43,80</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>29.053,37</t>
-  </si>
-  <si>
-    <t>39.838,12</t>
-  </si>
-  <si>
-    <t>63.495,81</t>
-  </si>
-  <si>
-    <t>11.953,85</t>
-  </si>
-  <si>
-    <t>7.828,39</t>
-  </si>
-  <si>
-    <t>10.787,54</t>
-  </si>
-  <si>
-    <t>7.425,00</t>
-  </si>
-  <si>
-    <t>1.034,40</t>
-  </si>
-  <si>
-    <t>25.882,39</t>
-  </si>
-  <si>
-    <t>3.968,81</t>
-  </si>
-  <si>
-    <t>164,00</t>
-  </si>
-  <si>
-    <t>234,00</t>
-  </si>
-  <si>
-    <t>248,46</t>
-  </si>
-  <si>
-    <t>6.560,98</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>618,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>1.153,90</t>
-  </si>
-  <si>
-    <t>1.003,88</t>
-  </si>
-  <si>
-    <t>270,20</t>
-  </si>
-  <si>
-    <t>1.059,97</t>
-  </si>
-  <si>
-    <t>80,67</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>6.342,50</t>
-  </si>
-  <si>
-    <t>0,12</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>65,58</t>
-  </si>
-  <si>
-    <t>54,62</t>
-  </si>
-  <si>
-    <t>554,98</t>
-  </si>
-  <si>
-    <t>1.930,00</t>
-  </si>
-  <si>
-    <t>40.051,75</t>
-  </si>
-  <si>
-    <t>508,20</t>
-  </si>
-  <si>
-    <t>4.378,90</t>
-  </si>
-  <si>
-    <t>3.753,00</t>
-  </si>
-  <si>
-    <t>566,39</t>
-  </si>
-  <si>
-    <t>19.850,69</t>
-  </si>
-  <si>
-    <t>2.583,00</t>
-  </si>
-  <si>
-    <t>36,48</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>799,50</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>109,00</t>
-  </si>
-  <si>
-    <t>123,68</t>
-  </si>
-  <si>
-    <t>101,02</t>
-  </si>
-  <si>
-    <t>193,88</t>
-  </si>
-  <si>
-    <t>1.720,21</t>
-  </si>
-  <si>
-    <t>933,74</t>
-  </si>
-  <si>
-    <t>522,00</t>
-  </si>
-  <si>
-    <t>4.163,50</t>
-  </si>
-  <si>
-    <t>224,00</t>
-  </si>
-  <si>
-    <t>609,34</t>
-  </si>
-  <si>
-    <t>13.035,50</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>6.621,80</t>
-  </si>
-  <si>
-    <t>330,33</t>
-  </si>
-  <si>
-    <t>587,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>10.449,00</t>
-  </si>
-  <si>
-    <t>11.050,00</t>
-  </si>
-  <si>
-    <t>3.428,80</t>
-  </si>
-  <si>
-    <t>2.644,08</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>854,00</t>
-  </si>
-  <si>
-    <t>363,00</t>
-  </si>
-  <si>
-    <t>393,10</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>383,00</t>
-  </si>
-  <si>
-    <t>225.368,00</t>
-  </si>
-  <si>
-    <t>171,30</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>56,38</t>
-  </si>
-  <si>
-    <t>14,02</t>
-  </si>
-  <si>
-    <t>218,93</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>76,53</t>
-  </si>
-  <si>
-    <t>321,24</t>
-  </si>
-  <si>
-    <t>10,26</t>
-  </si>
-  <si>
-    <t>2.427,29</t>
-  </si>
-  <si>
-    <t>379,08</t>
-  </si>
-  <si>
-    <t>796,50</t>
-  </si>
-  <si>
-    <t>6,38</t>
-  </si>
-  <si>
-    <t>792,00</t>
-  </si>
-  <si>
-    <t>21,25</t>
-  </si>
-  <si>
-    <t>5.969,00</t>
-  </si>
-  <si>
-    <t>4.559,30</t>
-  </si>
-  <si>
-    <t>435,60</t>
-  </si>
-  <si>
-    <t>1.006,20</t>
-  </si>
-  <si>
-    <t>5.524,50</t>
-  </si>
-  <si>
-    <t>352,80</t>
-  </si>
-  <si>
-    <t>5.052,00</t>
-  </si>
-  <si>
-    <t>8.326,56</t>
-  </si>
-  <si>
-    <t>1.890,00</t>
-  </si>
-  <si>
-    <t>249,00</t>
-  </si>
-  <si>
-    <t>167,92</t>
-  </si>
-  <si>
-    <t>294,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>173,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>98,28</t>
-  </si>
-  <si>
-    <t>339,00</t>
-  </si>
-  <si>
-    <t>910,96</t>
-  </si>
-  <si>
-    <t>1.302,78</t>
-  </si>
-  <si>
-    <t>779.594,20</t>
-  </si>
-  <si>
-    <t>759.000,00</t>
-  </si>
-  <si>
-    <t>3.276,40</t>
-  </si>
-  <si>
-    <t>5.008,74</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>8.384,27</t>
-  </si>
-  <si>
-    <t>537,00</t>
-  </si>
-  <si>
-    <t>5.445,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>3.032,00</t>
-  </si>
-  <si>
-    <t>12.678,65</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>10.929,46</t>
-  </si>
-  <si>
-    <t>108,90</t>
-  </si>
-  <si>
-    <t>107,00</t>
-  </si>
-  <si>
-    <t>289,25</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>162,00</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>145,76</t>
-  </si>
-  <si>
-    <t>2.725,70</t>
-  </si>
-  <si>
-    <t>227,06</t>
-  </si>
-  <si>
-    <t>1.008,00</t>
-  </si>
-  <si>
-    <t>2.580,33</t>
-  </si>
-  <si>
-    <t>55,08</t>
-  </si>
-  <si>
-    <t>1.882,00</t>
-  </si>
-  <si>
-    <t>8.874,00</t>
-  </si>
-  <si>
-    <t>1.010,05</t>
-  </si>
-  <si>
-    <t>97,13</t>
-  </si>
-  <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>384,90</t>
-  </si>
-  <si>
-    <t>1.809,00</t>
-  </si>
-  <si>
-    <t>1.675,00</t>
-  </si>
-  <si>
-    <t>1.917,00</t>
-  </si>
-  <si>
-    <t>3.700,79</t>
-  </si>
-  <si>
-    <t>52.532,61</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>68.911,91</t>
-  </si>
-  <si>
-    <t>1.415,00</t>
-  </si>
-  <si>
-    <t>40.500,00</t>
-  </si>
-  <si>
-    <t>942,26</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>2.214,55</t>
-  </si>
-  <si>
-    <t>22.542,00</t>
-  </si>
-  <si>
-    <t>364,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>481,00</t>
+    <t>2073.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>682.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>17060.00</t>
+  </si>
+  <si>
+    <t>33755.00</t>
+  </si>
+  <si>
+    <t>11453.00</t>
+  </si>
+  <si>
+    <t>11550.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>748.00</t>
+  </si>
+  <si>
+    <t>43.80</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>29053.37</t>
+  </si>
+  <si>
+    <t>39838.12</t>
+  </si>
+  <si>
+    <t>63495.81</t>
+  </si>
+  <si>
+    <t>11953.85</t>
+  </si>
+  <si>
+    <t>7828.39</t>
+  </si>
+  <si>
+    <t>10787.54</t>
+  </si>
+  <si>
+    <t>7425.00</t>
+  </si>
+  <si>
+    <t>1034.40</t>
+  </si>
+  <si>
+    <t>25882.39</t>
+  </si>
+  <si>
+    <t>3968.81</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>248.46</t>
+  </si>
+  <si>
+    <t>6560.98</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>618.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>1153.90</t>
+  </si>
+  <si>
+    <t>1003.88</t>
+  </si>
+  <si>
+    <t>270.20</t>
+  </si>
+  <si>
+    <t>1059.97</t>
+  </si>
+  <si>
+    <t>80.67</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>6342.50</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>65.58</t>
+  </si>
+  <si>
+    <t>54.62</t>
+  </si>
+  <si>
+    <t>554.98</t>
+  </si>
+  <si>
+    <t>1930.00</t>
+  </si>
+  <si>
+    <t>40051.75</t>
+  </si>
+  <si>
+    <t>508.20</t>
+  </si>
+  <si>
+    <t>4378.90</t>
+  </si>
+  <si>
+    <t>3753.00</t>
+  </si>
+  <si>
+    <t>566.39</t>
+  </si>
+  <si>
+    <t>19850.69</t>
+  </si>
+  <si>
+    <t>2583.00</t>
+  </si>
+  <si>
+    <t>36.48</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>799.50</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>123.68</t>
+  </si>
+  <si>
+    <t>101.02</t>
+  </si>
+  <si>
+    <t>193.88</t>
+  </si>
+  <si>
+    <t>1720.21</t>
+  </si>
+  <si>
+    <t>933.74</t>
+  </si>
+  <si>
+    <t>522.00</t>
+  </si>
+  <si>
+    <t>4163.50</t>
+  </si>
+  <si>
+    <t>224.00</t>
+  </si>
+  <si>
+    <t>609.34</t>
+  </si>
+  <si>
+    <t>13035.50</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>6621.80</t>
+  </si>
+  <si>
+    <t>330.33</t>
+  </si>
+  <si>
+    <t>587.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>10449.00</t>
+  </si>
+  <si>
+    <t>11050.00</t>
+  </si>
+  <si>
+    <t>3428.80</t>
+  </si>
+  <si>
+    <t>2644.08</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>854.00</t>
+  </si>
+  <si>
+    <t>363.00</t>
+  </si>
+  <si>
+    <t>393.10</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>383.00</t>
+  </si>
+  <si>
+    <t>225368.00</t>
+  </si>
+  <si>
+    <t>171.30</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>56.38</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>218.93</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>76.53</t>
+  </si>
+  <si>
+    <t>321.24</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>2427.29</t>
+  </si>
+  <si>
+    <t>379.08</t>
+  </si>
+  <si>
+    <t>796.50</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>792.00</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>5969.00</t>
+  </si>
+  <si>
+    <t>4559.30</t>
+  </si>
+  <si>
+    <t>435.60</t>
+  </si>
+  <si>
+    <t>1006.20</t>
+  </si>
+  <si>
+    <t>5524.50</t>
+  </si>
+  <si>
+    <t>352.80</t>
+  </si>
+  <si>
+    <t>5052.00</t>
+  </si>
+  <si>
+    <t>8326.56</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>167.92</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>98.28</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>910.96</t>
+  </si>
+  <si>
+    <t>1302.78</t>
+  </si>
+  <si>
+    <t>779594.20</t>
+  </si>
+  <si>
+    <t>759000.00</t>
+  </si>
+  <si>
+    <t>3276.40</t>
+  </si>
+  <si>
+    <t>5008.74</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>8384.27</t>
+  </si>
+  <si>
+    <t>537.00</t>
+  </si>
+  <si>
+    <t>5445.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>3032.00</t>
+  </si>
+  <si>
+    <t>12678.65</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>10929.46</t>
+  </si>
+  <si>
+    <t>108.90</t>
+  </si>
+  <si>
+    <t>107.00</t>
+  </si>
+  <si>
+    <t>289.25</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>145.76</t>
+  </si>
+  <si>
+    <t>2725.70</t>
+  </si>
+  <si>
+    <t>227.06</t>
+  </si>
+  <si>
+    <t>1008.00</t>
+  </si>
+  <si>
+    <t>2580.33</t>
+  </si>
+  <si>
+    <t>55.08</t>
+  </si>
+  <si>
+    <t>1882.00</t>
+  </si>
+  <si>
+    <t>8874.00</t>
+  </si>
+  <si>
+    <t>1010.05</t>
+  </si>
+  <si>
+    <t>97.13</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>384.90</t>
+  </si>
+  <si>
+    <t>1809.00</t>
+  </si>
+  <si>
+    <t>1675.00</t>
+  </si>
+  <si>
+    <t>1917.00</t>
+  </si>
+  <si>
+    <t>3700.79</t>
+  </si>
+  <si>
+    <t>52532.61</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>68911.91</t>
+  </si>
+  <si>
+    <t>1415.00</t>
+  </si>
+  <si>
+    <t>40500.00</t>
+  </si>
+  <si>
+    <t>942.26</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>2214.55</t>
+  </si>
+  <si>
+    <t>22542.00</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>481.00</t>
   </si>
 </sst>
 </file>
